--- a/Statistical analyses/Tukey posthoc/lipid/lipid, Vegetation.xlsx
+++ b/Statistical analyses/Tukey posthoc/lipid/lipid, Vegetation.xlsx
@@ -40,10 +40,10 @@
     <t>Unnamed: 7</t>
   </si>
   <si>
+    <t>CSS</t>
+  </si>
+  <si>
     <t>Grassland</t>
-  </si>
-  <si>
-    <t>Shrub</t>
   </si>
 </sst>
 </file>
@@ -441,16 +441,16 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>2.0126</v>
+        <v>-2.0126</v>
       </c>
       <c r="D2">
         <v>0.001</v>
       </c>
       <c r="E2">
-        <v>1.7236</v>
+        <v>-2.3017</v>
       </c>
       <c r="F2">
-        <v>2.3017</v>
+        <v>-1.7236</v>
       </c>
       <c r="G2" t="b">
         <v>1</v>
